--- a/ipy/alyData/显著性.xlsx
+++ b/ipy/alyData/显著性.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>指标</t>
   </si>
@@ -35,9 +35,6 @@
     <t>sent</t>
   </si>
   <si>
-    <t>sumsent</t>
-  </si>
-  <si>
     <t>diff_sent</t>
   </si>
   <si>
@@ -48,21 +45,6 @@
   </si>
   <si>
     <t>diff_sent_ma20</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>diff_heat</t>
-  </si>
-  <si>
-    <t>diff_heat_ma5</t>
-  </si>
-  <si>
-    <t>diff_heat_ma10</t>
-  </si>
-  <si>
-    <t>diff_heat_ma20</t>
   </si>
 </sst>
 </file>
@@ -420,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,16 +433,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.431270050835952</v>
+        <v>5.095531543289565</v>
       </c>
       <c r="D2">
-        <v>0.4187017854623035</v>
+        <v>0.5217923872045369</v>
       </c>
       <c r="E2">
-        <v>10.58335599391636</v>
+        <v>9.765438646179735</v>
       </c>
       <c r="F2">
-        <v>1.872222993679566e-25</v>
+        <v>5.333674089746348e-22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -471,16 +453,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.009866011259690074</v>
+        <v>3.505164189138702</v>
       </c>
       <c r="D3">
-        <v>0.001039388626997397</v>
+        <v>0.8669126808319849</v>
       </c>
       <c r="E3">
-        <v>9.492129318550626</v>
+        <v>4.043272484807536</v>
       </c>
       <c r="F3">
-        <v>6.711771353860402e-21</v>
+        <v>5.487437598157679e-05</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -491,16 +473,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.306113118944827</v>
+        <v>6.579511175729681</v>
       </c>
       <c r="D4">
-        <v>0.6653075279715928</v>
+        <v>1.070941309409819</v>
       </c>
       <c r="E4">
-        <v>6.472364940876919</v>
+        <v>6.143671103092998</v>
       </c>
       <c r="F4">
-        <v>1.232623470104161e-10</v>
+        <v>9.849230062800043e-10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -511,16 +493,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6.268195242979885</v>
+        <v>6.086614104540351</v>
       </c>
       <c r="D5">
-        <v>0.7918805102212713</v>
+        <v>0.86929719100924</v>
       </c>
       <c r="E5">
-        <v>7.915582164319708</v>
+        <v>7.001764376431368</v>
       </c>
       <c r="F5">
-        <v>4.209531103895425e-15</v>
+        <v>3.523885815923702e-12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -531,136 +513,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>5.383488205677236</v>
+        <v>5.431200575156577</v>
       </c>
       <c r="D6">
-        <v>0.6478707376858114</v>
+        <v>0.7469492445334017</v>
       </c>
       <c r="E6">
-        <v>8.309509740950809</v>
+        <v>7.271177546406511</v>
       </c>
       <c r="F6">
-        <v>1.841371242502758e-16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>5.376822748799984</v>
-      </c>
-      <c r="D7">
-        <v>0.5897106521633803</v>
-      </c>
-      <c r="E7">
-        <v>9.117730414186799</v>
-      </c>
-      <c r="F7">
-        <v>1.961064865877031e-19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>-0.0004884321422935859</v>
-      </c>
-      <c r="D8">
-        <v>0.000417967760841435</v>
-      </c>
-      <c r="E8">
-        <v>-1.168588077966336</v>
-      </c>
-      <c r="F8">
-        <v>0.2427202760949556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>-0.0006969771963211198</v>
-      </c>
-      <c r="D9">
-        <v>0.0008118397633092918</v>
-      </c>
-      <c r="E9">
-        <v>-0.8585157167961825</v>
-      </c>
-      <c r="F9">
-        <v>0.3907191525600404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>-0.0008146053508500909</v>
-      </c>
-      <c r="D10">
-        <v>0.0010201279665606</v>
-      </c>
-      <c r="E10">
-        <v>-0.7985325150888309</v>
-      </c>
-      <c r="F10">
-        <v>0.4246645296017344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>-0.000308641804557501</v>
-      </c>
-      <c r="D11">
-        <v>0.0008347895499756448</v>
-      </c>
-      <c r="E11">
-        <v>-0.3697240874259934</v>
-      </c>
-      <c r="F11">
-        <v>0.7116308384654564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>-9.688910323179517e-05</v>
-      </c>
-      <c r="D12">
-        <v>0.0007345871766416028</v>
-      </c>
-      <c r="E12">
-        <v>-0.1318959904456191</v>
-      </c>
-      <c r="F12">
-        <v>0.8950812113608541</v>
+        <v>5.23651532580706e-13</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +532,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -701,16 +563,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1.38191254058055</v>
+        <v>-1.093987115107546</v>
       </c>
       <c r="D2">
-        <v>1.597814600346356</v>
+        <v>1.66375569646652</v>
       </c>
       <c r="E2">
-        <v>0.8648766510714039</v>
+        <v>-0.6575407179256867</v>
       </c>
       <c r="F2">
-        <v>0.3878288122018845</v>
+        <v>0.5112821526243143</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -721,16 +583,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.0002324549708627908</v>
+        <v>1.851568203490313</v>
       </c>
       <c r="D3">
-        <v>0.0003303378822323251</v>
+        <v>1.765002502983113</v>
       </c>
       <c r="E3">
-        <v>0.7036885061196412</v>
+        <v>1.04904565311431</v>
       </c>
       <c r="F3">
-        <v>0.4821972807864314</v>
+        <v>0.2949088419506707</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -741,16 +603,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.9357343575685271</v>
+        <v>2.694279507540162</v>
       </c>
       <c r="D4">
-        <v>1.634754793770752</v>
+        <v>2.200373024155871</v>
       </c>
       <c r="E4">
-        <v>0.5724004365267202</v>
+        <v>1.224464887526863</v>
       </c>
       <c r="F4">
-        <v>0.5674988263796036</v>
+        <v>0.2216321655440361</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -761,16 +623,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.304873977307315</v>
+        <v>0.8157884658928469</v>
       </c>
       <c r="D5">
-        <v>2.255637040746059</v>
+        <v>1.896710208072916</v>
       </c>
       <c r="E5">
-        <v>1.021828395114921</v>
+        <v>0.4301070677115716</v>
       </c>
       <c r="F5">
-        <v>0.3077226667869134</v>
+        <v>0.6673926644213195</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -781,136 +643,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2.604363554049316</v>
+        <v>-1.200858400271421</v>
       </c>
       <c r="D6">
-        <v>1.913214727230397</v>
+        <v>1.733775150820585</v>
       </c>
       <c r="E6">
-        <v>1.361250003453317</v>
+        <v>-0.6926263764381803</v>
       </c>
       <c r="F6">
-        <v>0.174502479894541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0.9132381615989584</v>
-      </c>
-      <c r="D7">
-        <v>1.699254513243577</v>
-      </c>
-      <c r="E7">
-        <v>0.5374345952777537</v>
-      </c>
-      <c r="F7">
-        <v>0.5913838976296144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>-3.414163354656488e-05</v>
-      </c>
-      <c r="D8">
-        <v>0.0002597317500937235</v>
-      </c>
-      <c r="E8">
-        <v>-0.131449595724223</v>
-      </c>
-      <c r="F8">
-        <v>0.8955117559036597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>3.639210672099701e-05</v>
-      </c>
-      <c r="D9">
-        <v>0.0002006990811128585</v>
-      </c>
-      <c r="E9">
-        <v>0.1813267231678691</v>
-      </c>
-      <c r="F9">
-        <v>0.8562391214653386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>5.533561416423912e-06</v>
-      </c>
-      <c r="D10">
-        <v>0.0003031042536553812</v>
-      </c>
-      <c r="E10">
-        <v>0.01825629746098969</v>
-      </c>
-      <c r="F10">
-        <v>0.9854470763027871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>0.0001324382248177752</v>
-      </c>
-      <c r="D11">
-        <v>0.0002784621230979474</v>
-      </c>
-      <c r="E11">
-        <v>0.4756058861592135</v>
-      </c>
-      <c r="F11">
-        <v>0.6347169726333459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>0.0002479544773249144</v>
-      </c>
-      <c r="D12">
-        <v>0.0002660284782420445</v>
-      </c>
-      <c r="E12">
-        <v>0.9320599018700338</v>
-      </c>
-      <c r="F12">
-        <v>0.352088973937643</v>
+        <v>0.4890210515085374</v>
       </c>
     </row>
   </sheetData>

--- a/ipy/alyData/显著性.xlsx
+++ b/ipy/alyData/显著性.xlsx
@@ -433,16 +433,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5.095531543289565</v>
+        <v>7.540889195489976</v>
       </c>
       <c r="D2">
-        <v>0.5217923872045369</v>
+        <v>0.8461891697416867</v>
       </c>
       <c r="E2">
-        <v>9.765438646179735</v>
+        <v>8.911587934636362</v>
       </c>
       <c r="F2">
-        <v>5.333674089746348e-22</v>
+        <v>1.267227709305109e-18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -453,16 +453,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.505164189138702</v>
+        <v>3.53566771021202</v>
       </c>
       <c r="D3">
-        <v>0.8669126808319849</v>
+        <v>1.189333132379089</v>
       </c>
       <c r="E3">
-        <v>4.043272484807536</v>
+        <v>2.97281528106379</v>
       </c>
       <c r="F3">
-        <v>5.487437598157679e-05</v>
+        <v>0.002992390444267488</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -473,16 +473,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>6.579511175729681</v>
+        <v>8.083000372042681</v>
       </c>
       <c r="D4">
-        <v>1.070941309409819</v>
+        <v>1.5281045997868</v>
       </c>
       <c r="E4">
-        <v>6.143671103092998</v>
+        <v>5.289559610755974</v>
       </c>
       <c r="F4">
-        <v>9.849230062800043e-10</v>
+        <v>1.38539717863477e-07</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -493,16 +493,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6.086614104540351</v>
+        <v>7.659089326158498</v>
       </c>
       <c r="D5">
-        <v>0.86929719100924</v>
+        <v>1.286701588857507</v>
       </c>
       <c r="E5">
-        <v>7.001764376431368</v>
+        <v>5.9524985377217</v>
       </c>
       <c r="F5">
-        <v>3.523885815923702e-12</v>
+        <v>3.201782924729335e-09</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -513,16 +513,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>5.431200575156577</v>
+        <v>7.324097183714244</v>
       </c>
       <c r="D6">
-        <v>0.7469492445334017</v>
+        <v>1.140827683188367</v>
       </c>
       <c r="E6">
-        <v>7.271177546406511</v>
+        <v>6.419985499689994</v>
       </c>
       <c r="F6">
-        <v>5.23651532580706e-13</v>
+        <v>1.764297384619326e-10</v>
       </c>
     </row>
   </sheetData>
@@ -563,16 +563,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>-1.093987115107546</v>
+        <v>0.00499281393646181</v>
       </c>
       <c r="D2">
-        <v>1.66375569646652</v>
+        <v>2.679742311499448</v>
       </c>
       <c r="E2">
-        <v>-0.6575407179256867</v>
+        <v>0.001863169423058475</v>
       </c>
       <c r="F2">
-        <v>0.5112821526243143</v>
+        <v>0.9985144743156893</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -583,16 +583,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1.851568203490313</v>
+        <v>4.46690418992128</v>
       </c>
       <c r="D3">
-        <v>1.765002502983113</v>
+        <v>3.112348279148315</v>
       </c>
       <c r="E3">
-        <v>1.04904565311431</v>
+        <v>1.435219901271344</v>
       </c>
       <c r="F3">
-        <v>0.2949088419506707</v>
+        <v>0.1521225811302382</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -603,16 +603,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2.694279507540162</v>
+        <v>6.523753099902107</v>
       </c>
       <c r="D4">
-        <v>2.200373024155871</v>
+        <v>3.61019124324954</v>
       </c>
       <c r="E4">
-        <v>1.224464887526863</v>
+        <v>1.807038093092837</v>
       </c>
       <c r="F4">
-        <v>0.2216321655440361</v>
+        <v>0.07161987824379239</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -623,16 +623,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.8157884658928469</v>
+        <v>1.313386857494281</v>
       </c>
       <c r="D5">
-        <v>1.896710208072916</v>
+        <v>3.083221292132151</v>
       </c>
       <c r="E5">
-        <v>0.4301070677115716</v>
+        <v>0.4259787842169545</v>
       </c>
       <c r="F5">
-        <v>0.6673926644213195</v>
+        <v>0.6703866486693002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -643,16 +643,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-1.200858400271421</v>
+        <v>-1.538368977568879</v>
       </c>
       <c r="D6">
-        <v>1.733775150820585</v>
+        <v>2.81205821937283</v>
       </c>
       <c r="E6">
-        <v>-0.6926263764381803</v>
+        <v>-0.547061567563128</v>
       </c>
       <c r="F6">
-        <v>0.4890210515085374</v>
+        <v>0.5846870649814979</v>
       </c>
     </row>
   </sheetData>
